--- a/Doc/Fases.xlsx
+++ b/Doc/Fases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel 1 - Fase 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -234,6 +234,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF706E0C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -247,7 +254,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,13 +264,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -439,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,7 +485,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,7 +509,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,7 +517,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,7 +533,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -524,7 +545,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +577,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -568,19 +593,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,7 +621,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,7 +645,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,15 +657,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,6 +673,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,11 +697,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,7 +709,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,7 +717,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,31 +729,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -728,7 +765,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -754,7 +791,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF706E0C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -778,11 +815,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -812,10 +849,10 @@
   <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
   </cols>
@@ -895,21 +932,21 @@
       <c r="L4" s="6"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="10"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -923,37 +960,37 @@
       <c r="A5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="14"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -967,49 +1004,49 @@
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="K6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="14"/>
+      <c r="T6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="15"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1023,35 +1060,35 @@
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="14"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1065,47 +1102,47 @@
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="12" t="s">
+      <c r="P8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="15" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="14"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1119,37 +1156,37 @@
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13" t="s">
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="14"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -1163,47 +1200,47 @@
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="M10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="15" t="s">
+      <c r="O10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="17"/>
+      <c r="U10" s="19"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1216,46 +1253,46 @@
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="18" t="s">
+      <c r="T11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="19" t="n">
+      <c r="V11" s="21" t="n">
         <v>1</v>
       </c>
       <c r="W11" s="2"/>
@@ -1270,43 +1307,43 @@
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13" t="s">
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="14"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1320,24 +1357,24 @@
       <c r="K13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="14"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1349,18 +1386,18 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="14"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1374,22 +1411,22 @@
       <c r="K15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="22" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
+      <c r="O15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="25"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1408,7 +1445,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="21" t="n">
         <v>6</v>
       </c>
       <c r="U16" s="2"/>
@@ -1804,10 +1841,10 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1837,547 +1874,547 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="24"/>
-      <c r="K4" s="25" t="s">
+      <c r="I4" s="26"/>
+      <c r="K4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+      <c r="Q5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="32" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="17"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="11"/>
       <c r="J8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="33" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="17"/>
+      <c r="S8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="32" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="33" t="s">
+      <c r="L10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="17"/>
+      <c r="Q10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="32" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="17"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="34" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="33" t="s">
+      <c r="O13" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
+      <c r="R13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="33" t="s">
+      <c r="K14" s="34"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="34" t="s">
+      <c r="N14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
+      <c r="P14" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="5"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="32" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="5"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="32" t="s">
+      <c r="K16" s="34"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="5"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="32" t="s">
+      <c r="K17" s="34"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="33" t="s">
+      <c r="K18" s="34"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
+      <c r="Q18" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="5"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="32" t="s">
+      <c r="K19" s="34"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="33" t="s">
+      <c r="K20" s="34"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="34" t="s">
+      <c r="P20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="T20" s="36" t="s">
+      <c r="T20" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="5"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="17"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="41"/>
+      <c r="L22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="39" t="s">
+      <c r="M22" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="41"/>
+      <c r="O22" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2401,11 +2438,11 @@
   </sheetPr>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2439,64 +2476,64 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="K5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="43" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="29" t="s">
+      <c r="R5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="49" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2504,581 +2541,581 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="K6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="34" t="s">
+      <c r="L6" s="50"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="33" t="s">
+      <c r="R6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="36"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="K7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="33" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="36"/>
+      <c r="Q7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="46" t="s">
+      <c r="L8" s="50"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="36"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33" t="s">
+      <c r="L9" s="50"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="34" t="s">
+      <c r="Q9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="36"/>
+      <c r="U9" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="L10" s="45" t="s">
+      <c r="L10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="34" t="s">
+      <c r="N10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="46" t="s">
+      <c r="L11" s="50"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="46" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="36"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="46" t="s">
+      <c r="L13" s="50"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="34" t="s">
+      <c r="S13" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T13" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="33"/>
-      <c r="V13" s="36"/>
+      <c r="T13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="37"/>
+      <c r="V13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="46" t="s">
+      <c r="L14" s="50"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="36"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="34" t="s">
+      <c r="Q15" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="36"/>
+      <c r="S15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="5"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="36"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="46" t="s">
+      <c r="L17" s="50"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="34" t="s">
+      <c r="R17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="33"/>
-      <c r="V17" s="36"/>
+      <c r="T17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="37"/>
+      <c r="V17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="5"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="46" t="s">
+      <c r="L18" s="50"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="36"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="34" t="s">
+      <c r="L19" s="50"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="T19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V19" s="36" t="s">
+      <c r="U19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="5"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="46" t="s">
+      <c r="L20" s="50"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="36"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K21" s="5"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="46" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="46" t="s">
+      <c r="L22" s="50"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" s="34" t="s">
+      <c r="R22" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U22" s="33"/>
-      <c r="V22" s="36"/>
+      <c r="T22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="37"/>
+      <c r="V22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="5"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="46" t="s">
+      <c r="L23" s="50"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="36"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="5"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="49"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3106,7 +3143,7 @@
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3170,253 +3207,253 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="50"/>
+      <c r="P4" s="54"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="50"/>
+      <c r="R4" s="54"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="10"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="14"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="K6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="17"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="11"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="19" t="n">
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,87 +3461,87 @@
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="14"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="14"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="5"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="14"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="23"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="25"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,7 +3553,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="21" t="n">
         <v>6</v>
       </c>
       <c r="U16" s="2"/>
@@ -3548,7 +3585,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3569,18 +3606,18 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
@@ -3593,143 +3630,143 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="30"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="55" t="n">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="57" t="s">
+      <c r="Q5" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="36"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="K6" s="58" t="n">
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="59" t="s">
+      <c r="M6" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="59" t="s">
+      <c r="P6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="36"/>
+      <c r="Q6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="60" t="n">
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="34" t="s">
+      <c r="Q7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="66" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3737,366 +3774,366 @@
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="36"/>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="46" t="s">
+      <c r="H9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="62" t="n">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="36"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="62" t="n">
-        <v>7</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="62" t="n">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="68" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="P10" s="46" t="s">
+      <c r="P10" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="63" t="s">
+      <c r="Q10" s="37"/>
+      <c r="R10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="36"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="K11" s="58" t="n">
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="K11" s="63" t="n">
         <v>5</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="59" t="s">
+      <c r="M11" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="59" t="s">
+      <c r="Q11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="36"/>
+      <c r="R11" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="37"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="63" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="63" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="63" t="s">
+      <c r="P12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="S12" s="33"/>
-      <c r="T12" s="36"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K13" s="45"/>
-      <c r="L13" s="63" t="s">
+      <c r="K13" s="50"/>
+      <c r="L13" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="33"/>
-      <c r="T13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="37"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="63" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="63" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="63" t="s">
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="63" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="49"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4124,7 +4161,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4158,11 +4195,11 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4177,12 +4214,12 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
@@ -4196,71 +4233,71 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="25" t="s">
+      <c r="K4" s="11"/>
+      <c r="M4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="L5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="29" t="s">
+      <c r="S5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="72" t="s">
+      <c r="X5" s="78" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4268,352 +4305,352 @@
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="L6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="34" t="s">
+      <c r="Q6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="46" t="s">
+      <c r="G7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="L8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="36"/>
+      <c r="S8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="40"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="M9" s="35" t="s">
+      <c r="H9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="M9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="34" t="s">
+      <c r="N9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="34" t="s">
+      <c r="P9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="36"/>
+      <c r="U9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="L10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34" t="s">
+      <c r="M10" s="50"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" s="34" t="s">
+      <c r="U10" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="36"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="40"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="46" t="s">
+      <c r="J11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="36"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="L12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="34" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="34" t="s">
+      <c r="O12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="34" t="s">
+      <c r="Q12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="36"/>
+      <c r="S12" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="38" t="s">
+      <c r="M13" s="51"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="38" t="s">
+      <c r="R13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="38" t="s">
+      <c r="T13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V13" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="49"/>
+      <c r="V13" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="44"/>
+      <c r="X13" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/Fases.xlsx
+++ b/Doc/Fases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel 1 - Fase 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -452,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,6 +763,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -852,7 +856,7 @@
       <selection pane="topLeft" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.29"/>
   </cols>
@@ -1844,7 +1848,7 @@
       <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2438,11 +2442,11 @@
   </sheetPr>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3143,7 +3147,7 @@
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3585,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4161,7 +4165,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4195,11 +4199,15 @@
   </sheetPr>
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.31"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4210,11 +4218,11 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="78" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="11"/>
@@ -4297,7 +4305,7 @@
       <c r="W5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="78" t="s">
+      <c r="X5" s="79" t="s">
         <v>9</v>
       </c>
     </row>
